--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_10_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32741.15984103832</v>
+        <v>6515490.808366623</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>32741.15984103832</v>
+        <v>6515490.808366623</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8249.687356691227</v>
+        <v>495464.5455984476</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8249.687356691227</v>
+        <v>495464.5455984476</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1035752058.74113</v>
+        <v>42216881.21509691</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9215.411844002232</v>
+        <v>976712.888711701</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>17666.45507998505</v>
+        <v>1826792.390936202</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26117.49831596786</v>
+        <v>2676871.893160704</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35010.61459704654</v>
+        <v>3498669.563293163</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43903.7308781252</v>
+        <v>4320467.233425621</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>52466.95236518866</v>
+        <v>5170564.718144351</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>61030.08348795944</v>
+        <v>6020644.220368847</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>69593.21461073024</v>
+        <v>6870723.722593347</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>78421.43297651123</v>
+        <v>7692745.730270753</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>87008.03160261815</v>
+        <v>8532590.56618784</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95578.77632200459</v>
+        <v>9384185.174138898</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>104141.9074447753</v>
+        <v>10234264.6763634</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>112705.038567546</v>
+        <v>11084344.17858791</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>121323.7382254471</v>
+        <v>11922252.82241069</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>130216.8545065257</v>
+        <v>12744050.49254315</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>74</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27147,19 +27147,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
